--- a/montreal/ckan/dataset/20240811/error_download.xlsx
+++ b/montreal/ckan/dataset/20240811/error_download.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>url</t>
   </si>
@@ -29,13 +29,112 @@
   </si>
   <si>
     <t>package_name</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/7f0145a5-3eb3-4108-a611-df1c8e57a879/resource/5cb92114-b054-463a-9096-39555325a22c/download/bp-liste-projets-laureats.csv</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/f7a1c87d-a6f4-4ca6-8200-ceaa85cc3b9c/resource/1cb35513-e5c1-4ae6-af9a-ef40a0378a0e/download/membre-des-commissions.xls</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/019a1446-89f4-41be-ab52-44fc12c31170/resource/22370fb8-a519-4f83-be34-2f08230363b1/download/contrats_25000_2019.ods</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/22f95b5e-7759-4f65-b860-62243052201d/resource/02b7c566-3515-4ff1-852b-22f825b9e3d7/download/2019-12.csv</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/62eafbaf-e591-408a-8700-807934092a67/resource/ab8f1b8f-84d4-47c5-970b-c5f3047a9f09/download/2020-08.csv</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/6d080ad9-3823-4bfd-8c61-32594f11bc83/resource/1fa7a8db-2554-440a-9a5a-53c16b5d3995/download/programmation-culturelle-estivale-2020.csv</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/157bdb1a-5580-46d4-8980-5e1d5f6f9082/resource/9850b9a1-d37d-40a3-a783-dcc852db0957/download/2021-rapport-annuel-de-reddition.pdf</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/157bdb1a-5580-46d4-8980-5e1d5f6f9082/resource/4bfbe5b0-8ef1-4ca2-9233-e531bb7d4700/download/rapport-trimestriel-t3-2021-reddition-et-performance-reseau-311.pdf</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/157bdb1a-5580-46d4-8980-5e1d5f6f9082/resource/d19a9273-1052-4e2e-b08d-a05109ab415c/download/rapport-trimestriel-t1-2022-reddition-et-performance-reseau-311.pdf</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/764944bf-1e3b-4c69-bb7b-b33311142982/resource/3f5f50a1-108b-4a07-a466-aba8656e8368/download/resultats-election-2013-finaux-sommaires.xml</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/c0cec6a6-e333-4b83-bb4e-47de76500497/resource/c3e795df-be5d-49b5-b2f9-88dc732179ae/download/stations_qualo.geojson</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/e378dc35-138a-477d-8fef-bf49826db1af/resource/86264300-8509-4c7e-906e-6609b3106b39/download/elections-2017-sections-de-vote-par-adresse-civique.csv</t>
+  </si>
+  <si>
+    <t>https://donnees.montreal.ca/dataset/4656e09e-001d-4ad3-95de-67235310ecb7/resource/c3fb4bea-7141-4da6-be0d-c324e63f3572/download/codificationsondage2014citoyens.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.agencemobilitedurable.ca/images/CasUtilisation.pdf</t>
+  </si>
+  <si>
+    <t>https://www.agencemobilitedurable.ca/images/DescriptionDonneesOuvertes.pdf</t>
+  </si>
+  <si>
+    <t>ville-de-montreal</t>
+  </si>
+  <si>
+    <t>agence-de-mobilite-durable</t>
+  </si>
+  <si>
+    <t>environnement-ressources-naturelles-energie</t>
+  </si>
+  <si>
+    <t>gouvernement-finances</t>
+  </si>
+  <si>
+    <t>societe-culture</t>
+  </si>
+  <si>
+    <t>infrastructures</t>
+  </si>
+  <si>
+    <t>budget-participatif-montreal</t>
+  </si>
+  <si>
+    <t>commissions-permanentes-du-conseil-membres</t>
+  </si>
+  <si>
+    <t>contrats-25-000-et-plus-cdn-ndg</t>
+  </si>
+  <si>
+    <t>contrats-octroyes-par-les-fonctionnaires-2019</t>
+  </si>
+  <si>
+    <t>contrats-octroyes-par-les-fonctionnaires-2020</t>
+  </si>
+  <si>
+    <t>programmation-culturelle-vas</t>
+  </si>
+  <si>
+    <t>reseau-311-reddition-performance</t>
+  </si>
+  <si>
+    <t>resultats-sommaires</t>
+  </si>
+  <si>
+    <t>rsma-points-d-echantillonnage-qualo</t>
+  </si>
+  <si>
+    <t>sections-vote-adresse-civique</t>
+  </si>
+  <si>
+    <t>sondage-satisfaction-citoyens</t>
+  </si>
+  <si>
+    <t>stationnements-municipaux-tarifes-sur-rue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +149,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,16 +190,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +521,324 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>404</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>404</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>404</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>404</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>404</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>404</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>404</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>404</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>404</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>404</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>404</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>